--- a/swing_strategy_vix_sim_20260114.xlsx
+++ b/swing_strategy_vix_sim_20260114.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,73 +976,69 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>NVMI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20.96</v>
+        <v>404.65</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.65 - 21.09</t>
+          <t>398.58 - 407.08</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.09</v>
+        <v>407.08</v>
       </c>
       <c r="F7" t="n">
-        <v>20.34</v>
+        <v>392.51</v>
       </c>
       <c r="G7" t="n">
-        <v>25.15</v>
+        <v>485.58</v>
       </c>
       <c r="H7" t="n">
-        <v>96.67</v>
+        <v>87.59</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.47</v>
+        <v>0.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.42</v>
+        <v>0.19</v>
       </c>
       <c r="L7" t="n">
-        <v>0.77</v>
+        <v>0.26</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="N7" t="n">
-        <v>642106588</v>
+        <v>29652464</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="P7" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>13460615168</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
+        <v>9812593664</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>51.85</v>
+        <v>48.71</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1051,12 +1047,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1068,68 +1064,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NVMI</t>
+          <t>TFPM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>404.65</v>
+        <v>36.59</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>398.58 - 407.08</t>
+          <t>36.04 - 36.81</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>407.08</v>
+        <v>36.81</v>
       </c>
       <c r="F8" t="n">
-        <v>392.51</v>
+        <v>35.49</v>
       </c>
       <c r="G8" t="n">
-        <v>485.58</v>
+        <v>43.91</v>
       </c>
       <c r="H8" t="n">
-        <v>87.59</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>0.19</v>
+        <v>1.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="M8" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="N8" t="n">
-        <v>29652464</v>
+        <v>206561506</v>
       </c>
       <c r="O8" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="P8" t="n">
-        <v>0.67</v>
+        <v>0.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>9812593664</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
+        <v>7185598976</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>48.71</v>
+        <v>47.65</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1146,64 +1146,64 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TFPM</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36.59</v>
+        <v>185.81</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36.04 - 36.81</t>
+          <t>183.02 - 186.92</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.81</v>
+        <v>186.92</v>
       </c>
       <c r="F9" t="n">
-        <v>35.49</v>
+        <v>180.23</v>
       </c>
       <c r="G9" t="n">
-        <v>43.91</v>
+        <v>222.97</v>
       </c>
       <c r="H9" t="n">
-        <v>91.56999999999999</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>0.65</v>
       </c>
       <c r="K9" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
       <c r="L9" t="n">
-        <v>0.27</v>
+        <v>0.62</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>206561506</v>
+        <v>24305000000</v>
       </c>
       <c r="O9" t="n">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>7185598976</v>
+        <v>4523916001280</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1212,94 +1212,90 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>47.65</v>
+        <v>47.13</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>LEG</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>185.81</v>
+        <v>12.31</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>183.02 - 186.92</t>
+          <t>12.13 - 12.38</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>186.92</v>
+        <v>12.38</v>
       </c>
       <c r="F10" t="n">
-        <v>180.23</v>
+        <v>11.94</v>
       </c>
       <c r="G10" t="n">
-        <v>222.97</v>
+        <v>14.77</v>
       </c>
       <c r="H10" t="n">
-        <v>68.95999999999999</v>
+        <v>77.73</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.65</v>
+        <v>1.83</v>
       </c>
       <c r="K10" t="n">
-        <v>0.67</v>
+        <v>1.78</v>
       </c>
       <c r="L10" t="n">
-        <v>0.62</v>
+        <v>-0.06</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>0.26</v>
       </c>
       <c r="N10" t="n">
-        <v>24305000000</v>
+        <v>135436282</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="P10" t="n">
-        <v>0.64</v>
+        <v>0.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>4523916001280</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+        <v>1481672960</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>47.13</v>
+        <v>46.79</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1308,12 +1304,12 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1325,55 +1321,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LEG</t>
+          <t>CBRE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12.31</v>
+        <v>164.71</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.13 - 12.38</t>
+          <t>162.24 - 165.70</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.38</v>
+        <v>165.7</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94</v>
+        <v>159.77</v>
       </c>
       <c r="G11" t="n">
-        <v>14.77</v>
+        <v>197.65</v>
       </c>
       <c r="H11" t="n">
-        <v>77.73</v>
+        <v>72.23</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.83</v>
+        <v>0.61</v>
       </c>
       <c r="K11" t="n">
-        <v>1.78</v>
+        <v>0.66</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.06</v>
+        <v>0.14</v>
       </c>
       <c r="M11" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="N11" t="n">
-        <v>135436282</v>
+        <v>297592997</v>
       </c>
       <c r="O11" t="n">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="P11" t="n">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1481672960</v>
+        <v>49084989440</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
@@ -1382,7 +1378,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>46.79</v>
+        <v>45.75</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1408,55 +1404,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>NDAQ</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>164.71</v>
+        <v>98.89</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>162.24 - 165.70</t>
+          <t>97.41 - 99.48</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>165.7</v>
+        <v>99.48</v>
       </c>
       <c r="F12" t="n">
-        <v>159.77</v>
+        <v>95.92</v>
       </c>
       <c r="G12" t="n">
-        <v>197.65</v>
+        <v>118.67</v>
       </c>
       <c r="H12" t="n">
-        <v>72.23</v>
+        <v>70.61</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
       <c r="K12" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
       <c r="L12" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="M12" t="n">
         <v>0.14</v>
       </c>
       <c r="N12" t="n">
-        <v>297592997</v>
+        <v>570995433</v>
       </c>
       <c r="O12" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>49084989440</v>
+        <v>57006559232</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
@@ -1465,7 +1461,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>45.75</v>
+        <v>45.45</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1491,55 +1487,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98.89</v>
+        <v>17.42</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.41 - 99.48</t>
+          <t>17.16 - 17.52</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>99.48</v>
+        <v>17.52</v>
       </c>
       <c r="F13" t="n">
-        <v>95.92</v>
+        <v>16.89</v>
       </c>
       <c r="G13" t="n">
-        <v>118.67</v>
+        <v>20.9</v>
       </c>
       <c r="H13" t="n">
-        <v>70.61</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0.38</v>
+        <v>-0.76</v>
       </c>
       <c r="K13" t="n">
-        <v>0.38</v>
+        <v>-0.77</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03</v>
+        <v>0.61</v>
       </c>
       <c r="M13" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="N13" t="n">
-        <v>570995433</v>
+        <v>592641204</v>
       </c>
       <c r="O13" t="n">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="P13" t="n">
-        <v>0.77</v>
+        <v>-0.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>57006559232</v>
+        <v>10506586112</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
@@ -1548,7 +1544,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>45.45</v>
+        <v>45.23</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1574,55 +1570,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.42</v>
+        <v>123.75</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17.16 - 17.52</t>
+          <t>121.89 - 124.49</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.52</v>
+        <v>124.49</v>
       </c>
       <c r="F14" t="n">
-        <v>16.89</v>
+        <v>120.03</v>
       </c>
       <c r="G14" t="n">
-        <v>20.9</v>
+        <v>148.5</v>
       </c>
       <c r="H14" t="n">
-        <v>96.56999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.76</v>
+        <v>0.3</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.77</v>
+        <v>0.26</v>
       </c>
       <c r="L14" t="n">
-        <v>0.61</v>
+        <v>0.12</v>
       </c>
       <c r="M14" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="N14" t="n">
-        <v>592641204</v>
+        <v>43649806</v>
       </c>
       <c r="O14" t="n">
-        <v>0.77</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.46</v>
+        <v>0.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>10506586112</v>
+        <v>5185156608</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
@@ -1631,11 +1627,11 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>45.23</v>
+        <v>45.21</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1652,69 +1648,73 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>123.75</v>
+        <v>220.97</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>121.89 - 124.49</t>
+          <t>217.66 - 222.30</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>124.49</v>
+        <v>222.3</v>
       </c>
       <c r="F15" t="n">
-        <v>120.03</v>
+        <v>214.35</v>
       </c>
       <c r="G15" t="n">
-        <v>148.5</v>
+        <v>265.16</v>
       </c>
       <c r="H15" t="n">
-        <v>79.09999999999999</v>
+        <v>77.77</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="K15" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="M15" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="N15" t="n">
-        <v>43649806</v>
+        <v>1628041540</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="P15" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>5185156608</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
+        <v>359748370432</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>45.21</v>
+        <v>44.95</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1723,76 +1723,76 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>PRIM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>220.97</v>
+        <v>138.01</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>217.66 - 222.30</t>
+          <t>135.94 - 138.84</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222.3</v>
+        <v>138.84</v>
       </c>
       <c r="F16" t="n">
-        <v>214.35</v>
+        <v>133.87</v>
       </c>
       <c r="G16" t="n">
-        <v>265.16</v>
+        <v>165.61</v>
       </c>
       <c r="H16" t="n">
-        <v>77.77</v>
+        <v>86.66</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L16" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="N16" t="n">
-        <v>1628041540</v>
+        <v>54032351</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="P16" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>359748370432</v>
+        <v>7113358848</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>44.95</v>
+        <v>43.38</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1827,77 +1827,73 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PRIM</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>138.01</v>
+        <v>169.84</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>135.94 - 138.84</t>
+          <t>167.29 - 170.86</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>138.84</v>
+        <v>170.86</v>
       </c>
       <c r="F17" t="n">
-        <v>133.87</v>
+        <v>164.75</v>
       </c>
       <c r="G17" t="n">
-        <v>165.61</v>
+        <v>203.81</v>
       </c>
       <c r="H17" t="n">
-        <v>86.66</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="K17" t="n">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
       <c r="L17" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="M17" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="N17" t="n">
-        <v>54032351</v>
+        <v>146034859</v>
       </c>
       <c r="O17" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.74</v>
+        <v>-0.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>7113358848</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+        <v>26084653056</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>43.38</v>
+        <v>43.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1914,55 +1910,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>169.84</v>
+        <v>31.83</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>167.29 - 170.86</t>
+          <t>31.35 - 32.02</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>170.86</v>
+        <v>32.02</v>
       </c>
       <c r="F18" t="n">
-        <v>164.75</v>
+        <v>30.87</v>
       </c>
       <c r="G18" t="n">
-        <v>203.81</v>
+        <v>38.2</v>
       </c>
       <c r="H18" t="n">
-        <v>79.59999999999999</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.27</v>
+        <v>4.18</v>
       </c>
       <c r="K18" t="n">
-        <v>0.34</v>
+        <v>4.22</v>
       </c>
       <c r="L18" t="n">
-        <v>0.11</v>
+        <v>-0.22</v>
       </c>
       <c r="M18" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="N18" t="n">
-        <v>146034859</v>
+        <v>70506819</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.1</v>
+        <v>5.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>26084653056</v>
+        <v>2234361088</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
@@ -1971,16 +1967,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>43.19</v>
+        <v>42.25</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -1997,55 +1993,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>FHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31.83</v>
+        <v>51.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31.35 - 32.02</t>
+          <t>50.53 - 51.61</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.02</v>
+        <v>51.61</v>
       </c>
       <c r="F19" t="n">
-        <v>30.87</v>
+        <v>49.76</v>
       </c>
       <c r="G19" t="n">
-        <v>38.2</v>
+        <v>61.56</v>
       </c>
       <c r="H19" t="n">
-        <v>73.95999999999999</v>
+        <v>70.52</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.18</v>
+        <v>0.19</v>
       </c>
       <c r="K19" t="n">
-        <v>4.22</v>
+        <v>0.26</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.22</v>
+        <v>0.15</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="N19" t="n">
-        <v>70506819</v>
+        <v>77537867</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="P19" t="n">
-        <v>5.06</v>
+        <v>1.29</v>
       </c>
       <c r="Q19" t="n">
-        <v>2234361088</v>
+        <v>4213838336</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
@@ -2054,16 +2050,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>42.25</v>
+        <v>41.48</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2080,55 +2076,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FHI</t>
+          <t>WCC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>51.3</v>
+        <v>276.77</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>50.53 - 51.61</t>
+          <t>272.62 - 278.43</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>51.61</v>
+        <v>278.43</v>
       </c>
       <c r="F20" t="n">
-        <v>49.76</v>
+        <v>268.47</v>
       </c>
       <c r="G20" t="n">
-        <v>61.56</v>
+        <v>332.12</v>
       </c>
       <c r="H20" t="n">
-        <v>70.52</v>
+        <v>83.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.19</v>
+        <v>-0.08</v>
       </c>
       <c r="K20" t="n">
-        <v>0.26</v>
+        <v>-0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="M20" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="N20" t="n">
-        <v>77537867</v>
+        <v>48646230</v>
       </c>
       <c r="O20" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="P20" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213838336</v>
+        <v>12358870016</v>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
@@ -2137,7 +2133,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>41.48</v>
+        <v>40.65</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2163,55 +2159,55 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WCC</t>
+          <t>TSEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>276.77</v>
+        <v>124.78</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>272.62 - 278.43</t>
+          <t>122.91 - 125.53</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>278.43</v>
+        <v>125.53</v>
       </c>
       <c r="F21" t="n">
-        <v>268.47</v>
+        <v>121.04</v>
       </c>
       <c r="G21" t="n">
-        <v>332.12</v>
+        <v>149.74</v>
       </c>
       <c r="H21" t="n">
-        <v>83.5</v>
+        <v>95.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="K21" t="n">
-        <v>-0</v>
+        <v>-0.04</v>
       </c>
       <c r="L21" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>48646230</v>
+        <v>112123800</v>
       </c>
       <c r="O21" t="n">
-        <v>1.04</v>
+        <v>0.74</v>
       </c>
       <c r="P21" t="n">
-        <v>1.05</v>
+        <v>-0.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>12358870016</v>
+        <v>13635375104</v>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
@@ -2220,16 +2216,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>40.65</v>
+        <v>39.44</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2246,55 +2242,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TSEM</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>124.78</v>
+        <v>290.03</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>122.91 - 125.53</t>
+          <t>285.68 - 291.77</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>125.53</v>
+        <v>291.77</v>
       </c>
       <c r="F22" t="n">
-        <v>121.04</v>
+        <v>281.33</v>
       </c>
       <c r="G22" t="n">
-        <v>149.74</v>
+        <v>348.04</v>
       </c>
       <c r="H22" t="n">
-        <v>95.98</v>
+        <v>76.36</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.02</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.04</v>
+        <v>0.19</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="N22" t="n">
-        <v>112123800</v>
+        <v>27406631</v>
       </c>
       <c r="O22" t="n">
-        <v>0.74</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.06</v>
+        <v>0.67</v>
       </c>
       <c r="Q22" t="n">
-        <v>13635375104</v>
+        <v>9513586688</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
@@ -2303,16 +2299,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>39.44</v>
+        <v>39.27</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2329,55 +2325,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WTS</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>290.03</v>
+        <v>229.27</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>285.68 - 291.77</t>
+          <t>225.83 - 230.65</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>291.77</v>
+        <v>230.65</v>
       </c>
       <c r="F23" t="n">
-        <v>281.33</v>
+        <v>222.4</v>
       </c>
       <c r="G23" t="n">
-        <v>348.04</v>
+        <v>275.12</v>
       </c>
       <c r="H23" t="n">
-        <v>76.36</v>
+        <v>93.11</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="K23" t="n">
-        <v>0.19</v>
+        <v>-0.16</v>
       </c>
       <c r="L23" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="M23" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="N23" t="n">
-        <v>27406631</v>
+        <v>156608303</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P23" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="Q23" t="n">
-        <v>9513586688</v>
+        <v>31639726080</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
@@ -2386,7 +2382,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>39.27</v>
+        <v>39.25</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2395,7 +2391,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2412,55 +2408,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>CAE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>229.27</v>
+        <v>32.84</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>225.83 - 230.65</t>
+          <t>32.35 - 33.04</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>230.65</v>
+        <v>33.04</v>
       </c>
       <c r="F24" t="n">
-        <v>222.4</v>
+        <v>31.86</v>
       </c>
       <c r="G24" t="n">
-        <v>275.12</v>
+        <v>39.41</v>
       </c>
       <c r="H24" t="n">
-        <v>93.11</v>
+        <v>74.55</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.18</v>
+        <v>0.41</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.16</v>
+        <v>0.44</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="M24" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="N24" t="n">
-        <v>156608303</v>
+        <v>321548127</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>0.77</v>
       </c>
       <c r="P24" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>31639726080</v>
+        <v>10123962368</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
@@ -2469,11 +2465,11 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>39.25</v>
+        <v>39.06</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2495,68 +2491,72 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32.84</v>
+        <v>137.37</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32.35 - 33.04</t>
+          <t>135.31 - 138.19</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.04</v>
+        <v>138.19</v>
       </c>
       <c r="F25" t="n">
-        <v>31.86</v>
+        <v>133.24</v>
       </c>
       <c r="G25" t="n">
-        <v>39.41</v>
+        <v>164.84</v>
       </c>
       <c r="H25" t="n">
-        <v>74.55</v>
+        <v>87.67</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.41</v>
+        <v>0.05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="L25" t="n">
         <v>0.09</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="N25" t="n">
-        <v>321548127</v>
+        <v>198853187</v>
       </c>
       <c r="O25" t="n">
-        <v>0.77</v>
+        <v>1.16</v>
       </c>
       <c r="P25" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="Q25" t="n">
-        <v>10123962368</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
+        <v>27245268992</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>39.06</v>
+        <v>38.17</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2578,72 +2578,68 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>JHG</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>137.37</v>
+        <v>47.86</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>135.31 - 138.19</t>
+          <t>47.14 - 48.15</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>138.19</v>
+        <v>48.15</v>
       </c>
       <c r="F26" t="n">
-        <v>133.24</v>
+        <v>46.43</v>
       </c>
       <c r="G26" t="n">
-        <v>164.84</v>
+        <v>57.43</v>
       </c>
       <c r="H26" t="n">
-        <v>87.67</v>
+        <v>69.28</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.11</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N26" t="n">
-        <v>198853187</v>
+        <v>149399212</v>
       </c>
       <c r="O26" t="n">
-        <v>1.16</v>
+        <v>0.95</v>
       </c>
       <c r="P26" t="n">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="Q26" t="n">
-        <v>27245268992</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+        <v>7359256576</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>38.17</v>
+        <v>38.08</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2665,55 +2661,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JHG</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>47.86</v>
+        <v>64.31</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47.14 - 48.15</t>
+          <t>63.35 - 64.70</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48.15</v>
+        <v>64.7</v>
       </c>
       <c r="F27" t="n">
-        <v>46.43</v>
+        <v>62.38</v>
       </c>
       <c r="G27" t="n">
-        <v>57.43</v>
+        <v>77.17</v>
       </c>
       <c r="H27" t="n">
-        <v>69.28</v>
+        <v>72.92</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>0.41</v>
       </c>
       <c r="K27" t="n">
-        <v>4.41</v>
+        <v>0.48</v>
       </c>
       <c r="L27" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="M27" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="N27" t="n">
-        <v>149399212</v>
+        <v>111765032</v>
       </c>
       <c r="O27" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="P27" t="n">
-        <v>0.86</v>
+        <v>-1.08</v>
       </c>
       <c r="Q27" t="n">
-        <v>7359256576</v>
+        <v>7175314944</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
@@ -2722,7 +2718,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>38.08</v>
+        <v>36.78</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2731,7 +2727,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2748,55 +2744,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>64.31</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>63.35 - 64.70</t>
+          <t>72.96 - 74.51</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>64.7</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>62.38</v>
+        <v>71.84</v>
       </c>
       <c r="G28" t="n">
-        <v>77.17</v>
+        <v>88.88</v>
       </c>
       <c r="H28" t="n">
-        <v>72.92</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.41</v>
+        <v>-0.47</v>
       </c>
       <c r="K28" t="n">
-        <v>0.48</v>
+        <v>-0.82</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="M28" t="n">
-        <v>0.13</v>
+        <v>-0.03</v>
       </c>
       <c r="N28" t="n">
-        <v>111765032</v>
+        <v>540446834</v>
       </c>
       <c r="O28" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.08</v>
+        <v>1.23</v>
       </c>
       <c r="Q28" t="n">
-        <v>7175314944</v>
+        <v>35096621056</v>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
@@ -2805,16 +2801,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>36.78</v>
+        <v>35.04</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2831,64 +2827,68 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>74.06999999999999</v>
+        <v>114.41</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>72.96 - 74.51</t>
+          <t>112.69 - 115.10</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>74.51000000000001</v>
+        <v>115.1</v>
       </c>
       <c r="F29" t="n">
-        <v>71.84</v>
+        <v>110.98</v>
       </c>
       <c r="G29" t="n">
-        <v>88.88</v>
+        <v>137.29</v>
       </c>
       <c r="H29" t="n">
-        <v>71.43000000000001</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.47</v>
+        <v>-0.02</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.03</v>
+        <v>0.26</v>
       </c>
       <c r="N29" t="n">
-        <v>540446834</v>
+        <v>323737989</v>
       </c>
       <c r="O29" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="P29" t="n">
-        <v>1.23</v>
+        <v>0.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>35096621056</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
+        <v>38196228096</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>35.04</v>
+        <v>34.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -2914,55 +2914,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>114.41</v>
+        <v>106.64</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>112.69 - 115.10</t>
+          <t>105.04 - 107.28</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>115.1</v>
+        <v>107.28</v>
       </c>
       <c r="F30" t="n">
-        <v>110.98</v>
+        <v>103.44</v>
       </c>
       <c r="G30" t="n">
-        <v>137.29</v>
+        <v>127.97</v>
       </c>
       <c r="H30" t="n">
-        <v>67.56999999999999</v>
+        <v>81.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02</v>
+        <v>0.15</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="M30" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="N30" t="n">
-        <v>323737989</v>
+        <v>161359550</v>
       </c>
       <c r="O30" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="P30" t="n">
-        <v>0.24</v>
+        <v>1.11</v>
       </c>
       <c r="Q30" t="n">
-        <v>38196228096</v>
+        <v>17275961344</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>34.33</v>
+        <v>33.18</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3001,55 +3001,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>106.64</v>
+        <v>567.4400000000001</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>105.04 - 107.28</t>
+          <t>558.93 - 570.84</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>107.28</v>
+        <v>570.84</v>
       </c>
       <c r="F31" t="n">
-        <v>103.44</v>
+        <v>550.41</v>
       </c>
       <c r="G31" t="n">
-        <v>127.97</v>
+        <v>680.9299999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>81.75</v>
+        <v>87.55</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.15</v>
+        <v>-0.34</v>
       </c>
       <c r="K31" t="n">
-        <v>0.19</v>
+        <v>-0.34</v>
       </c>
       <c r="L31" t="n">
-        <v>0.35</v>
+        <v>-0.02</v>
       </c>
       <c r="M31" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="N31" t="n">
-        <v>161359550</v>
+        <v>138036253</v>
       </c>
       <c r="O31" t="n">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="P31" t="n">
-        <v>1.11</v>
+        <v>0.47</v>
       </c>
       <c r="Q31" t="n">
-        <v>17275961344</v>
+        <v>75010277376</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>33.18</v>
+        <v>31.01</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -3088,68 +3088,64 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>567.4400000000001</v>
+        <v>50.43</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>558.93 - 570.84</t>
+          <t>49.67 - 50.73</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>570.84</v>
+        <v>50.73</v>
       </c>
       <c r="F32" t="n">
-        <v>550.41</v>
+        <v>48.91</v>
       </c>
       <c r="G32" t="n">
-        <v>680.9299999999999</v>
+        <v>60.52</v>
       </c>
       <c r="H32" t="n">
-        <v>87.55</v>
+        <v>85.97</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.34</v>
+        <v>0.13</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.34</v>
+        <v>0.19</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.02</v>
+        <v>0.13</v>
       </c>
       <c r="M32" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="N32" t="n">
-        <v>138036253</v>
+        <v>404520086</v>
       </c>
       <c r="O32" t="n">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="P32" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>75010277376</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+        <v>18351886336</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>31.01</v>
+        <v>30.7</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3175,55 +3171,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FTI</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>50.43</v>
+        <v>416.88</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>49.67 - 50.73</t>
+          <t>410.63 - 419.38</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.73</v>
+        <v>419.38</v>
       </c>
       <c r="F33" t="n">
-        <v>48.91</v>
+        <v>404.37</v>
       </c>
       <c r="G33" t="n">
-        <v>60.52</v>
+        <v>500.26</v>
       </c>
       <c r="H33" t="n">
-        <v>85.97</v>
+        <v>80</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.13</v>
+        <v>-0.42</v>
       </c>
       <c r="K33" t="n">
-        <v>0.19</v>
+        <v>-0.41</v>
       </c>
       <c r="L33" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M33" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="N33" t="n">
-        <v>404520086</v>
+        <v>112433185</v>
       </c>
       <c r="O33" t="n">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>18351886336</v>
+        <v>44949663744</v>
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
@@ -3232,7 +3228,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>30.7</v>
+        <v>27.56</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3241,7 +3237,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -3258,55 +3254,55 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>EBAY</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>416.88</v>
+        <v>94.37</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>410.63 - 419.38</t>
+          <t>92.95 - 94.94</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>419.38</v>
+        <v>94.94</v>
       </c>
       <c r="F34" t="n">
-        <v>404.37</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>500.26</v>
+        <v>113.24</v>
       </c>
       <c r="H34" t="n">
-        <v>80</v>
+        <v>76.55</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.42</v>
+        <v>-0</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.41</v>
+        <v>0.05</v>
       </c>
       <c r="L34" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="N34" t="n">
-        <v>112433185</v>
+        <v>452000000</v>
       </c>
       <c r="O34" t="n">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="P34" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>44949663744</v>
+        <v>38662201344</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
@@ -3315,16 +3311,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>27.56</v>
+        <v>27.43</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -3341,73 +3337,77 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>94.37</v>
+        <v>204.33</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>92.95 - 94.94</t>
+          <t>201.27 - 205.56</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>94.94</v>
+        <v>205.56</v>
       </c>
       <c r="F35" t="n">
-        <v>91.54000000000001</v>
+        <v>198.2</v>
       </c>
       <c r="G35" t="n">
-        <v>113.24</v>
+        <v>245.2</v>
       </c>
       <c r="H35" t="n">
-        <v>76.55</v>
+        <v>78.38</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>-0</v>
+        <v>-0.53</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05</v>
+        <v>-0.51</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="M35" t="n">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="N35" t="n">
-        <v>452000000</v>
+        <v>250106129</v>
       </c>
       <c r="O35" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>38662201344</v>
-      </c>
-      <c r="R35" t="inlineStr"/>
+        <v>51089178624</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>27.43</v>
+        <v>27.25</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -3424,68 +3424,64 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>204.33</v>
+        <v>167.44</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>201.27 - 205.56</t>
+          <t>164.93 - 168.44</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>205.56</v>
+        <v>168.44</v>
       </c>
       <c r="F36" t="n">
-        <v>198.2</v>
+        <v>162.41</v>
       </c>
       <c r="G36" t="n">
-        <v>245.2</v>
+        <v>200.93</v>
       </c>
       <c r="H36" t="n">
-        <v>78.38</v>
+        <v>83.27</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.53</v>
+        <v>-0.68</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.51</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.09</v>
+        <v>0.32</v>
       </c>
       <c r="M36" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="N36" t="n">
-        <v>250106129</v>
+        <v>1222600912</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>0.74</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="Q36" t="n">
-        <v>51089178624</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+        <v>222393827328</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>仅跟踪</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>27.25</v>
+        <v>26.87</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3494,7 +3490,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -3511,55 +3507,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>167.44</v>
+        <v>84.47</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>164.93 - 168.44</t>
+          <t>83.20 - 84.98</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>168.44</v>
+        <v>84.98</v>
       </c>
       <c r="F37" t="n">
-        <v>162.41</v>
+        <v>81.94</v>
       </c>
       <c r="G37" t="n">
-        <v>200.93</v>
+        <v>101.36</v>
       </c>
       <c r="H37" t="n">
-        <v>83.27</v>
+        <v>67.17</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.68</v>
+        <v>-0.53</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.52</v>
       </c>
       <c r="L37" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="N37" t="n">
-        <v>1222600912</v>
+        <v>482646473</v>
       </c>
       <c r="O37" t="n">
-        <v>0.74</v>
+        <v>1.04</v>
       </c>
       <c r="P37" t="n">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>222393827328</v>
+        <v>41718779904</v>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
@@ -3568,7 +3564,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>26.87</v>
+        <v>25.15</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3577,7 +3573,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -3594,73 +3590,73 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>BELFB</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>84.47</v>
+        <v>193.82</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>83.20 - 84.98</t>
+          <t>190.91 - 194.98</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>84.98</v>
+        <v>194.98</v>
       </c>
       <c r="F38" t="n">
-        <v>81.94</v>
+        <v>188</v>
       </c>
       <c r="G38" t="n">
-        <v>101.36</v>
+        <v>232.58</v>
       </c>
       <c r="H38" t="n">
-        <v>67.17</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.53</v>
+        <v>1.75</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.52</v>
+        <v>1.73</v>
       </c>
       <c r="L38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="M38" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="N38" t="n">
-        <v>482646473</v>
+        <v>10545300</v>
       </c>
       <c r="O38" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="P38" t="n">
-        <v>0.78</v>
+        <v>-0.09</v>
       </c>
       <c r="Q38" t="n">
-        <v>41718779904</v>
+        <v>2233956352</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>仅跟踪</t>
+          <t>允许建仓</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>25.15</v>
+        <v>100</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -3672,149 +3668,153 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>202.29</v>
+        <v>114.63</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>199.26 - 203.50</t>
+          <t>112.91 - 115.32</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>203.5</v>
+        <v>115.32</v>
       </c>
       <c r="F39" t="n">
-        <v>196.22</v>
+        <v>111.19</v>
       </c>
       <c r="G39" t="n">
-        <v>242.75</v>
+        <v>137.56</v>
       </c>
       <c r="H39" t="n">
-        <v>48.02</v>
+        <v>95.47</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="K39" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="L39" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="N39" t="n">
-        <v>2873130000</v>
+        <v>1091262981</v>
       </c>
       <c r="O39" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.46</v>
+        <v>1.01</v>
       </c>
       <c r="Q39" t="n">
-        <v>581205426176</v>
+        <v>119088422912</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>仅跟踪</t>
+          <t>允许建仓</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>19.13</v>
+        <v>100</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>downtrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BELFB</t>
+          <t>ORLA</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>193.82</v>
+        <v>15.08</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>190.91 - 194.98</t>
+          <t>14.85 - 15.17</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>194.98</v>
+        <v>15.17</v>
       </c>
       <c r="F40" t="n">
-        <v>188</v>
+        <v>14.63</v>
       </c>
       <c r="G40" t="n">
-        <v>232.58</v>
+        <v>18.1</v>
       </c>
       <c r="H40" t="n">
-        <v>94.18000000000001</v>
+        <v>92.08</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="K40" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="L40" t="n">
-        <v>0.45</v>
+        <v>1.77</v>
       </c>
       <c r="M40" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="N40" t="n">
-        <v>10545300</v>
+        <v>339896220</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.09</v>
+        <v>0.74</v>
       </c>
       <c r="Q40" t="n">
-        <v>2233956352</v>
-      </c>
-      <c r="R40" t="inlineStr"/>
+        <v>5125635072</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr">
         <is>
           <t>允许建仓</t>
@@ -3847,55 +3847,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WS</t>
+          <t>SII</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36.64</v>
+        <v>108.62</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>36.09 - 36.86</t>
+          <t>106.99 - 109.27</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.86</v>
+        <v>109.27</v>
       </c>
       <c r="F41" t="n">
-        <v>35.54</v>
+        <v>105.36</v>
       </c>
       <c r="G41" t="n">
-        <v>43.97</v>
+        <v>130.34</v>
       </c>
       <c r="H41" t="n">
-        <v>72.14</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
       <c r="K41" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="L41" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="M41" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="N41" t="n">
-        <v>49857111</v>
+        <v>25786258</v>
       </c>
       <c r="O41" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.01</v>
+        <v>1.56</v>
       </c>
       <c r="Q41" t="n">
-        <v>1819784576</v>
+        <v>2585072384</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>100</v>
+        <v>98.93000000000001</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -3925,64 +3925,64 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>114.63</v>
+        <v>336.43</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>112.91 - 115.32</t>
+          <t>331.38 - 338.45</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>115.32</v>
+        <v>338.45</v>
       </c>
       <c r="F42" t="n">
-        <v>111.19</v>
+        <v>326.34</v>
       </c>
       <c r="G42" t="n">
-        <v>137.56</v>
+        <v>403.72</v>
       </c>
       <c r="H42" t="n">
-        <v>95.47</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>0.99</v>
+        <v>0.33</v>
       </c>
       <c r="K42" t="n">
-        <v>1.08</v>
+        <v>0.35</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="M42" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="N42" t="n">
-        <v>1091262981</v>
+        <v>5407000000</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="P42" t="n">
-        <v>1.01</v>
+        <v>0.32</v>
       </c>
       <c r="Q42" t="n">
-        <v>119088422912</v>
+        <v>4061326999552</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>100</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4005,67 +4005,67 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ORLA</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15.08</v>
+        <v>36.64</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14.85 - 15.17</t>
+          <t>36.09 - 36.86</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>15.17</v>
+        <v>36.86</v>
       </c>
       <c r="F43" t="n">
-        <v>14.63</v>
+        <v>35.54</v>
       </c>
       <c r="G43" t="n">
-        <v>18.1</v>
+        <v>43.97</v>
       </c>
       <c r="H43" t="n">
-        <v>92.08</v>
+        <v>72.14</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.33</v>
+        <v>0.47</v>
       </c>
       <c r="K43" t="n">
-        <v>1.33</v>
+        <v>0.48</v>
       </c>
       <c r="L43" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N43" t="n">
-        <v>339896220</v>
+        <v>50805635</v>
       </c>
       <c r="O43" t="n">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
       <c r="P43" t="n">
-        <v>0.74</v>
+        <v>-0.02</v>
       </c>
       <c r="Q43" t="n">
-        <v>4753448448</v>
+        <v>1862523136</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>100</v>
+        <v>96.7</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4087,12 +4087,12 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -4104,55 +4104,55 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SII</t>
+          <t>NDSN</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>108.62</v>
+        <v>264.8</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106.99 - 109.27</t>
+          <t>260.83 - 266.39</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>109.27</v>
+        <v>266.39</v>
       </c>
       <c r="F44" t="n">
-        <v>105.36</v>
+        <v>256.86</v>
       </c>
       <c r="G44" t="n">
-        <v>130.34</v>
+        <v>317.76</v>
       </c>
       <c r="H44" t="n">
-        <v>93.31999999999999</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="M44" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="N44" t="n">
-        <v>25786258</v>
+        <v>55823516</v>
       </c>
       <c r="O44" t="n">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="P44" t="n">
-        <v>1.56</v>
+        <v>0.76</v>
       </c>
       <c r="Q44" t="n">
-        <v>2585072384</v>
+        <v>13591351296</v>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>98.93000000000001</v>
+        <v>93.06999999999999</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4182,73 +4182,69 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>FLS</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>336.43</v>
+        <v>74.84</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>331.38 - 338.45</t>
+          <t>73.72 - 75.29</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>338.45</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>326.34</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>403.72</v>
+        <v>89.81</v>
       </c>
       <c r="H45" t="n">
-        <v>89.65000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>0.33</v>
+        <v>2.76</v>
       </c>
       <c r="K45" t="n">
-        <v>0.35</v>
+        <v>2.8</v>
       </c>
       <c r="L45" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="M45" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="N45" t="n">
-        <v>5407000000</v>
+        <v>127115509</v>
       </c>
       <c r="O45" t="n">
-        <v>0.61</v>
+        <v>1.03</v>
       </c>
       <c r="P45" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>4061326999552</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+        <v>9289462784</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>允许建仓</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>96.81999999999999</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4257,12 +4253,12 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -4274,64 +4270,68 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>264.8</v>
+        <v>164.13</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>260.83 - 266.39</t>
+          <t>161.67 - 165.11</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>266.39</v>
+        <v>165.11</v>
       </c>
       <c r="F46" t="n">
-        <v>256.86</v>
+        <v>159.2</v>
       </c>
       <c r="G46" t="n">
-        <v>317.76</v>
+        <v>196.96</v>
       </c>
       <c r="H46" t="n">
-        <v>75.34999999999999</v>
+        <v>90.86</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>0.24</v>
+        <v>-0.17</v>
       </c>
       <c r="K46" t="n">
-        <v>0.27</v>
+        <v>-0.1</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="M46" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="N46" t="n">
-        <v>55823516</v>
+        <v>36909135</v>
       </c>
       <c r="O46" t="n">
-        <v>0.79</v>
+        <v>1.02</v>
       </c>
       <c r="P46" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="Q46" t="n">
-        <v>13591351296</v>
-      </c>
-      <c r="R46" t="inlineStr"/>
+        <v>5845590016</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr">
         <is>
           <t>允许建仓</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>93.06999999999999</v>
+        <v>89.31</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4357,55 +4357,55 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FLS</t>
+          <t>HLIO</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>74.84</v>
+        <v>61.86</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>73.72 - 75.29</t>
+          <t>60.93 - 62.23</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>75.29000000000001</v>
+        <v>62.23</v>
       </c>
       <c r="F47" t="n">
-        <v>72.59999999999999</v>
+        <v>60</v>
       </c>
       <c r="G47" t="n">
-        <v>89.81</v>
+        <v>74.23</v>
       </c>
       <c r="H47" t="n">
-        <v>80.8</v>
+        <v>85.95</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.76</v>
+        <v>-0.1</v>
       </c>
       <c r="K47" t="n">
-        <v>2.8</v>
+        <v>-0.09</v>
       </c>
       <c r="L47" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.04</v>
       </c>
-      <c r="M47" t="n">
-        <v>0.21</v>
-      </c>
       <c r="N47" t="n">
-        <v>127115509</v>
+        <v>33128494</v>
       </c>
       <c r="O47" t="n">
         <v>1.03</v>
       </c>
       <c r="P47" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="Q47" t="n">
-        <v>9289462784</v>
+        <v>1840038144</v>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>91.51000000000001</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -4440,68 +4440,64 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>164.13</v>
+        <v>56.99</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>161.67 - 165.11</t>
+          <t>56.14 - 57.33</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>165.11</v>
+        <v>57.33</v>
       </c>
       <c r="F48" t="n">
-        <v>159.2</v>
+        <v>55.28</v>
       </c>
       <c r="G48" t="n">
-        <v>196.96</v>
+        <v>68.39</v>
       </c>
       <c r="H48" t="n">
-        <v>90.86</v>
+        <v>82.22</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.17</v>
+        <v>-0.37</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.1</v>
+        <v>-0.36</v>
       </c>
       <c r="L48" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="M48" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="N48" t="n">
-        <v>36909135</v>
+        <v>281814257</v>
       </c>
       <c r="O48" t="n">
-        <v>1.02</v>
+        <v>0.72</v>
       </c>
       <c r="P48" t="n">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="Q48" t="n">
-        <v>5845590016</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+        <v>15272674304</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>允许建仓</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>89.31</v>
+        <v>77.67</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4527,68 +4523,68 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HLIO</t>
+          <t>RVLV</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>61.86</v>
+        <v>31.35</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>60.93 - 62.23</t>
+          <t>30.88 - 31.54</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>62.23</v>
+        <v>31.54</v>
       </c>
       <c r="F49" t="n">
-        <v>60</v>
+        <v>30.41</v>
       </c>
       <c r="G49" t="n">
-        <v>74.23</v>
+        <v>37.62</v>
       </c>
       <c r="H49" t="n">
-        <v>85.95</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.1</v>
+        <v>0.93</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.09</v>
+        <v>0.92</v>
       </c>
       <c r="L49" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="N49" t="n">
-        <v>33128494</v>
+        <v>40415438</v>
       </c>
       <c r="O49" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="P49" t="n">
-        <v>0.51</v>
+        <v>1.06</v>
       </c>
       <c r="Q49" t="n">
-        <v>1840038144</v>
+        <v>2128613504</v>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>回撤建仓</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>87.68000000000001</v>
+        <v>96.63</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4610,73 +4606,73 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>AIZ</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>56.99</v>
+        <v>235.01</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>56.14 - 57.33</t>
+          <t>231.48 - 236.42</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>57.33</v>
+        <v>236.42</v>
       </c>
       <c r="F50" t="n">
-        <v>55.28</v>
+        <v>227.96</v>
       </c>
       <c r="G50" t="n">
-        <v>68.39</v>
+        <v>282.01</v>
       </c>
       <c r="H50" t="n">
-        <v>82.22</v>
+        <v>69.81</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.37</v>
+        <v>0.98</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.36</v>
+        <v>1.03</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="M50" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="N50" t="n">
-        <v>281814257</v>
+        <v>50081110</v>
       </c>
       <c r="O50" t="n">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="P50" t="n">
-        <v>0.48</v>
+        <v>0.78</v>
       </c>
       <c r="Q50" t="n">
-        <v>15272674304</v>
+        <v>12205579264</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>允许建仓</t>
+          <t>回撤建仓</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>77.67</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -4693,242 +4689,76 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RVLV</t>
+          <t>TXNM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>31.35</v>
+        <v>59.01</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>30.88 - 31.54</t>
+          <t>58.12 - 59.36</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.54</v>
+        <v>59.36</v>
       </c>
       <c r="F51" t="n">
-        <v>30.41</v>
+        <v>57.24</v>
       </c>
       <c r="G51" t="n">
-        <v>37.62</v>
+        <v>70.81</v>
       </c>
       <c r="H51" t="n">
-        <v>77.54000000000001</v>
+        <v>66.39</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.93</v>
+        <v>-0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.92</v>
+        <v>-0.16</v>
       </c>
       <c r="L51" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="M51" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="N51" t="n">
-        <v>40415438</v>
+        <v>108921356</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>1.06</v>
+        <v>-1.32</v>
       </c>
       <c r="Q51" t="n">
-        <v>2128613504</v>
+        <v>6426360320</v>
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>回撤建仓</t>
+          <t>禁止交易</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>96.63</v>
+        <v>17.88</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>派发阶段</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>AIZ</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>235.01</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>231.48 - 236.42</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>236.42</v>
-      </c>
-      <c r="F52" t="n">
-        <v>227.96</v>
-      </c>
-      <c r="G52" t="n">
-        <v>282.01</v>
-      </c>
-      <c r="H52" t="n">
-        <v>69.81</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N52" t="n">
-        <v>50081110</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>12205579264</v>
-      </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>回撤建仓</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>强趋势回撤</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>uptrend</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TXNM</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>59.01</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>58.12 - 59.36</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>59.36</v>
-      </c>
-      <c r="F53" t="n">
-        <v>57.24</v>
-      </c>
-      <c r="G53" t="n">
-        <v>70.81</v>
-      </c>
-      <c r="H53" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N53" t="n">
-        <v>108921356</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>6426360320</v>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>禁止交易</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>派发阶段</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>uptrend</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
         <is>
           <t>机构偏多</t>
         </is>
